--- a/public/excel/harian m.XLSX
+++ b/public/excel/harian m.XLSX
@@ -924,24 +924,24 @@
     <t>700</t>
   </si>
   <si>
+    <t>3000142982</t>
+  </si>
+  <si>
+    <t>DEN71845</t>
+  </si>
+  <si>
+    <t>3640</t>
+  </si>
+  <si>
+    <t>3000142983</t>
+  </si>
+  <si>
+    <t>3000142984</t>
+  </si>
+  <si>
     <t>3000143053</t>
   </si>
   <si>
-    <t>DEN71845</t>
-  </si>
-  <si>
-    <t>3640</t>
-  </si>
-  <si>
-    <t>3000142982</t>
-  </si>
-  <si>
-    <t>3000142983</t>
-  </si>
-  <si>
-    <t>3000142984</t>
-  </si>
-  <si>
     <t>3000142989</t>
   </si>
   <si>
@@ -951,24 +951,24 @@
     <t>1260</t>
   </si>
   <si>
+    <t>3000142986</t>
+  </si>
+  <si>
+    <t>DEN71847</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>3000142987</t>
+  </si>
+  <si>
+    <t>3000142988</t>
+  </si>
+  <si>
     <t>3000143064</t>
   </si>
   <si>
-    <t>DEN71847</t>
-  </si>
-  <si>
-    <t>2920</t>
-  </si>
-  <si>
-    <t>3000142986</t>
-  </si>
-  <si>
-    <t>3000142987</t>
-  </si>
-  <si>
-    <t>3000142988</t>
-  </si>
-  <si>
     <t>3000142993</t>
   </si>
   <si>
@@ -1182,15 +1182,15 @@
     <t>430</t>
   </si>
   <si>
+    <t>3000142489</t>
+  </si>
+  <si>
+    <t>MDN71837</t>
+  </si>
+  <si>
     <t>3000143081</t>
   </si>
   <si>
-    <t>MDN71837</t>
-  </si>
-  <si>
-    <t>3000142489</t>
-  </si>
-  <si>
     <t>3000140382</t>
   </si>
   <si>
@@ -2184,36 +2184,78 @@
     <t>3000142012</t>
   </si>
   <si>
+    <t>3000142014</t>
+  </si>
+  <si>
+    <t>3000142015</t>
+  </si>
+  <si>
+    <t>3000142016</t>
+  </si>
+  <si>
+    <t>3000142017</t>
+  </si>
+  <si>
+    <t>3000142018</t>
+  </si>
+  <si>
+    <t>3000142019</t>
+  </si>
+  <si>
+    <t>3000142020</t>
+  </si>
+  <si>
+    <t>3000142021</t>
+  </si>
+  <si>
+    <t>3000142022</t>
+  </si>
+  <si>
+    <t>3000142026</t>
+  </si>
+  <si>
+    <t>3000142029</t>
+  </si>
+  <si>
+    <t>3000142030</t>
+  </si>
+  <si>
+    <t>3000142031</t>
+  </si>
+  <si>
+    <t>3000142032</t>
+  </si>
+  <si>
+    <t>3000142033</t>
+  </si>
+  <si>
+    <t>3000142034</t>
+  </si>
+  <si>
+    <t>3000142035</t>
+  </si>
+  <si>
+    <t>3000142036</t>
+  </si>
+  <si>
+    <t>3000142037</t>
+  </si>
+  <si>
+    <t>3000142038</t>
+  </si>
+  <si>
+    <t>3000142039</t>
+  </si>
+  <si>
+    <t>3000142040</t>
+  </si>
+  <si>
+    <t>3000142041</t>
+  </si>
+  <si>
     <t>3000142013</t>
   </si>
   <si>
-    <t>3000142014</t>
-  </si>
-  <si>
-    <t>3000142015</t>
-  </si>
-  <si>
-    <t>3000142016</t>
-  </si>
-  <si>
-    <t>3000142017</t>
-  </si>
-  <si>
-    <t>3000142018</t>
-  </si>
-  <si>
-    <t>3000142019</t>
-  </si>
-  <si>
-    <t>3000142020</t>
-  </si>
-  <si>
-    <t>3000142021</t>
-  </si>
-  <si>
-    <t>3000142022</t>
-  </si>
-  <si>
     <t>3000142023</t>
   </si>
   <si>
@@ -2223,52 +2265,10 @@
     <t>3000142025</t>
   </si>
   <si>
-    <t>3000142026</t>
-  </si>
-  <si>
     <t>3000142027</t>
   </si>
   <si>
     <t>3000142028</t>
-  </si>
-  <si>
-    <t>3000142029</t>
-  </si>
-  <si>
-    <t>3000142030</t>
-  </si>
-  <si>
-    <t>3000142031</t>
-  </si>
-  <si>
-    <t>3000142032</t>
-  </si>
-  <si>
-    <t>3000142033</t>
-  </si>
-  <si>
-    <t>3000142034</t>
-  </si>
-  <si>
-    <t>3000142035</t>
-  </si>
-  <si>
-    <t>3000142036</t>
-  </si>
-  <si>
-    <t>3000142037</t>
-  </si>
-  <si>
-    <t>3000142038</t>
-  </si>
-  <si>
-    <t>3000142039</t>
-  </si>
-  <si>
-    <t>3000142040</t>
-  </si>
-  <si>
-    <t>3000142041</t>
   </si>
   <si>
     <t>3000142751</t>
@@ -3170,7 +3170,7 @@
   <dimension ref="A1:W513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13359,61 +13359,61 @@
         <v>44909</v>
       </c>
       <c r="E144" s="2">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F144" s="2">
+        <v>44895</v>
+      </c>
+      <c r="G144" s="2">
+        <v>44895</v>
+      </c>
+      <c r="H144" s="2">
         <v>44898</v>
-      </c>
-      <c r="G144" s="2">
-        <v>44900</v>
-      </c>
-      <c r="H144" s="2">
-        <v>44900</v>
       </c>
       <c r="I144" t="s">
         <v>303</v>
       </c>
       <c r="J144" s="3">
-        <v>224</v>
+        <v>1500</v>
       </c>
       <c r="K144" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L144" s="4">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="M144" s="4">
-        <v>224</v>
+        <v>1500</v>
       </c>
       <c r="N144" s="4">
-        <v>224</v>
+        <v>1500</v>
       </c>
       <c r="O144" s="4">
-        <v>215</v>
+        <v>1500</v>
       </c>
       <c r="P144" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q144" s="4">
         <v>0</v>
       </c>
       <c r="R144" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S144" s="3">
-        <v>215</v>
+        <v>1500</v>
       </c>
       <c r="T144" s="4">
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="V144" t="s">
         <v>110</v>
       </c>
       <c r="W144" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
@@ -13510,40 +13510,40 @@
         <v>44895</v>
       </c>
       <c r="H146" s="2">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="I146" t="s">
         <v>303</v>
       </c>
       <c r="J146" s="3">
-        <v>1500</v>
+        <v>756</v>
       </c>
       <c r="K146" s="4">
-        <v>1500</v>
+        <v>756</v>
       </c>
       <c r="L146" s="4">
         <v>0</v>
       </c>
       <c r="M146" s="4">
-        <v>1500</v>
+        <v>756</v>
       </c>
       <c r="N146" s="4">
-        <v>1500</v>
+        <v>756</v>
       </c>
       <c r="O146" s="4">
-        <v>1500</v>
+        <v>425</v>
       </c>
       <c r="P146" s="4">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="Q146" s="4">
         <v>0</v>
       </c>
       <c r="R146" s="4">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="S146" s="3">
-        <v>1500</v>
+        <v>425</v>
       </c>
       <c r="T146" s="4">
         <v>0</v>
@@ -13572,13 +13572,13 @@
         <v>44909</v>
       </c>
       <c r="E147" s="2">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="F147" s="2">
-        <v>44895</v>
+        <v>44898</v>
       </c>
       <c r="G147" s="2">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="H147" s="2">
         <v>44900</v>
@@ -13587,46 +13587,46 @@
         <v>303</v>
       </c>
       <c r="J147" s="3">
-        <v>756</v>
+        <v>224</v>
       </c>
       <c r="K147" s="4">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="L147" s="4">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M147" s="4">
-        <v>756</v>
+        <v>224</v>
       </c>
       <c r="N147" s="4">
-        <v>756</v>
+        <v>224</v>
       </c>
       <c r="O147" s="4">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="P147" s="4">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="Q147" s="4">
         <v>0</v>
       </c>
       <c r="R147" s="4">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="S147" s="3">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="T147" s="4">
         <v>0</v>
       </c>
       <c r="U147" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="V147" t="s">
         <v>110</v>
       </c>
       <c r="W147" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
@@ -13714,55 +13714,55 @@
         <v>44909</v>
       </c>
       <c r="E149" s="2">
+        <v>44896</v>
+      </c>
+      <c r="F149" s="2">
+        <v>44896</v>
+      </c>
+      <c r="G149" s="2">
         <v>44897</v>
       </c>
-      <c r="F149" s="2">
+      <c r="H149" s="2">
         <v>44898</v>
-      </c>
-      <c r="G149" s="2">
-        <v>44900</v>
-      </c>
-      <c r="H149" s="2">
-        <v>44900</v>
       </c>
       <c r="I149" t="s">
         <v>312</v>
       </c>
       <c r="J149" s="3">
-        <v>776</v>
+        <v>1500</v>
       </c>
       <c r="K149" s="4">
-        <v>776</v>
+        <v>1500</v>
       </c>
       <c r="L149" s="4">
         <v>0</v>
       </c>
       <c r="M149" s="4">
-        <v>776</v>
+        <v>1500</v>
       </c>
       <c r="N149" s="4">
-        <v>776</v>
+        <v>1500</v>
       </c>
       <c r="O149" s="4">
-        <v>771</v>
+        <v>1500</v>
       </c>
       <c r="P149" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q149" s="4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R149" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S149" s="3">
-        <v>745</v>
+        <v>1500</v>
       </c>
       <c r="T149" s="4">
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="V149" t="s">
         <v>110</v>
@@ -13794,7 +13794,7 @@
         <v>44897</v>
       </c>
       <c r="H150" s="2">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="I150" t="s">
         <v>312</v>
@@ -13815,19 +13815,19 @@
         <v>1500</v>
       </c>
       <c r="O150" s="4">
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="P150" s="4">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="Q150" s="4">
         <v>0</v>
       </c>
       <c r="R150" s="4">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="S150" s="3">
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="T150" s="4">
         <v>0</v>
@@ -13864,41 +13864,39 @@
       <c r="G151" s="2">
         <v>44897</v>
       </c>
-      <c r="H151" s="2">
-        <v>44900</v>
-      </c>
+      <c r="H151" s="2"/>
       <c r="I151" t="s">
         <v>312</v>
       </c>
       <c r="J151" s="3">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="K151" s="4">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="L151" s="4">
         <v>0</v>
       </c>
       <c r="M151" s="4">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="N151" s="4">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="O151" s="4">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="P151" s="4">
-        <v>825</v>
+        <v>22</v>
       </c>
       <c r="Q151" s="4">
         <v>0</v>
       </c>
       <c r="R151" s="4">
-        <v>825</v>
+        <v>22</v>
       </c>
       <c r="S151" s="3">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="T151" s="4">
         <v>0</v>
@@ -13927,53 +13925,55 @@
         <v>44909</v>
       </c>
       <c r="E152" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="F152" s="2">
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="G152" s="2">
-        <v>44897</v>
-      </c>
-      <c r="H152" s="2"/>
+        <v>44900</v>
+      </c>
+      <c r="H152" s="2">
+        <v>44900</v>
+      </c>
       <c r="I152" t="s">
         <v>312</v>
       </c>
       <c r="J152" s="3">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="K152" s="4">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="L152" s="4">
         <v>0</v>
       </c>
       <c r="M152" s="4">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="N152" s="4">
-        <v>22</v>
+        <v>776</v>
       </c>
       <c r="O152" s="4">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="P152" s="4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="Q152" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R152" s="4">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S152" s="3">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="T152" s="4">
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="V152" t="s">
         <v>110</v>
@@ -16339,13 +16339,13 @@
         <v>44904</v>
       </c>
       <c r="E186" s="2">
-        <v>44900</v>
+        <v>44897</v>
       </c>
       <c r="F186" s="2">
-        <v>44900</v>
+        <v>44898</v>
       </c>
       <c r="G186" s="2">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="H186" s="2">
         <v>44901</v>
@@ -16354,40 +16354,40 @@
         <v>152</v>
       </c>
       <c r="J186" s="3">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="K186" s="4">
         <v>0</v>
       </c>
       <c r="L186" s="4">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M186" s="4">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N186" s="4">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="O186" s="4">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="P186" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="Q186" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R186" s="4">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="S186" s="3">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T186" s="4">
         <v>0</v>
       </c>
       <c r="U186" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="V186" t="s">
         <v>110</v>
@@ -16410,13 +16410,13 @@
         <v>44904</v>
       </c>
       <c r="E187" s="2">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="F187" s="2">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="G187" s="2">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="H187" s="2">
         <v>44901</v>
@@ -16425,40 +16425,40 @@
         <v>152</v>
       </c>
       <c r="J187" s="3">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="K187" s="4">
         <v>0</v>
       </c>
       <c r="L187" s="4">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M187" s="4">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N187" s="4">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="O187" s="4">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="P187" s="4">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Q187" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R187" s="4">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="S187" s="3">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T187" s="4">
         <v>0</v>
       </c>
       <c r="U187" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="V187" t="s">
         <v>110</v>
@@ -30813,10 +30813,10 @@
         <v>44888</v>
       </c>
       <c r="G390" s="2">
+        <v>44889</v>
+      </c>
+      <c r="H390" s="2">
         <v>44890</v>
-      </c>
-      <c r="H390" s="2">
-        <v>44893</v>
       </c>
       <c r="I390" t="s">
         <v>717</v>
@@ -30958,7 +30958,7 @@
         <v>44889</v>
       </c>
       <c r="H392" s="2">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="I392" t="s">
         <v>717</v>
@@ -31165,13 +31165,13 @@
         <v>44887</v>
       </c>
       <c r="F395" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="G395" s="2">
         <v>44889</v>
       </c>
       <c r="H395" s="2">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="I395" t="s">
         <v>717</v>
@@ -31449,7 +31449,7 @@
         <v>44887</v>
       </c>
       <c r="F399" s="2">
-        <v>44889</v>
+        <v>44888</v>
       </c>
       <c r="G399" s="2">
         <v>44889</v>
@@ -31520,13 +31520,13 @@
         <v>44887</v>
       </c>
       <c r="F400" s="2">
+        <v>44888</v>
+      </c>
+      <c r="G400" s="2">
         <v>44889</v>
       </c>
-      <c r="G400" s="2">
-        <v>44890</v>
-      </c>
       <c r="H400" s="2">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="I400" t="s">
         <v>717</v>
@@ -31591,13 +31591,13 @@
         <v>44887</v>
       </c>
       <c r="F401" s="2">
+        <v>44888</v>
+      </c>
+      <c r="G401" s="2">
         <v>44889</v>
       </c>
-      <c r="G401" s="2">
-        <v>44890</v>
-      </c>
       <c r="H401" s="2">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="I401" t="s">
         <v>717</v>
@@ -31662,13 +31662,13 @@
         <v>44887</v>
       </c>
       <c r="F402" s="2">
+        <v>44888</v>
+      </c>
+      <c r="G402" s="2">
         <v>44889</v>
       </c>
-      <c r="G402" s="2">
-        <v>44890</v>
-      </c>
       <c r="H402" s="2">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="I402" t="s">
         <v>717</v>
@@ -31739,7 +31739,7 @@
         <v>44889</v>
       </c>
       <c r="H403" s="2">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="I403" t="s">
         <v>717</v>
@@ -31807,9 +31807,11 @@
         <v>44888</v>
       </c>
       <c r="G404" s="2">
-        <v>44890</v>
-      </c>
-      <c r="H404" s="2"/>
+        <v>44889</v>
+      </c>
+      <c r="H404" s="2">
+        <v>44889</v>
+      </c>
       <c r="I404" t="s">
         <v>717</v>
       </c>
@@ -31829,19 +31831,19 @@
         <v>1500</v>
       </c>
       <c r="O404" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P404" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Q404" s="4">
         <v>0</v>
       </c>
       <c r="R404" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="S404" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T404" s="4">
         <v>0</v>
@@ -31873,13 +31875,13 @@
         <v>44887</v>
       </c>
       <c r="F405" s="2">
+        <v>44888</v>
+      </c>
+      <c r="G405" s="2">
         <v>44889</v>
       </c>
-      <c r="G405" s="2">
-        <v>44890</v>
-      </c>
       <c r="H405" s="2">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="I405" t="s">
         <v>717</v>
@@ -31900,19 +31902,19 @@
         <v>1500</v>
       </c>
       <c r="O405" s="4">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="P405" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q405" s="4">
         <v>0</v>
       </c>
       <c r="R405" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S405" s="3">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="T405" s="4">
         <v>0</v>
@@ -32234,7 +32236,7 @@
         <v>44889</v>
       </c>
       <c r="H410" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="I410" t="s">
         <v>717</v>
@@ -32370,46 +32372,44 @@
         <v>44887</v>
       </c>
       <c r="F412" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="G412" s="2">
         <v>44889</v>
       </c>
-      <c r="H412" s="2">
-        <v>44889</v>
-      </c>
+      <c r="H412" s="2"/>
       <c r="I412" t="s">
         <v>717</v>
       </c>
       <c r="J412" s="3">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="K412" s="4">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="L412" s="4">
         <v>0</v>
       </c>
       <c r="M412" s="4">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="N412" s="4">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="O412" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P412" s="4">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="Q412" s="4">
         <v>0</v>
       </c>
       <c r="R412" s="4">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="S412" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="T412" s="4">
         <v>0</v>
@@ -32444,10 +32444,10 @@
         <v>44888</v>
       </c>
       <c r="G413" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="H413" s="2">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="I413" t="s">
         <v>717</v>
@@ -32512,13 +32512,13 @@
         <v>44887</v>
       </c>
       <c r="F414" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="G414" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="H414" s="2">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="I414" t="s">
         <v>717</v>
@@ -32583,13 +32583,13 @@
         <v>44887</v>
       </c>
       <c r="F415" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="G415" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="H415" s="2">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="I415" t="s">
         <v>717</v>
@@ -32654,13 +32654,13 @@
         <v>44887</v>
       </c>
       <c r="F416" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="G416" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="H416" s="2">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="I416" t="s">
         <v>717</v>
@@ -32728,11 +32728,9 @@
         <v>44888</v>
       </c>
       <c r="G417" s="2">
-        <v>44889</v>
-      </c>
-      <c r="H417" s="2">
-        <v>44889</v>
-      </c>
+        <v>44890</v>
+      </c>
+      <c r="H417" s="2"/>
       <c r="I417" t="s">
         <v>717</v>
       </c>
@@ -32752,19 +32750,19 @@
         <v>1500</v>
       </c>
       <c r="O417" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P417" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="Q417" s="4">
         <v>0</v>
       </c>
       <c r="R417" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="S417" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="T417" s="4">
         <v>0</v>
@@ -32799,41 +32797,43 @@
         <v>44889</v>
       </c>
       <c r="G418" s="2">
-        <v>44889</v>
-      </c>
-      <c r="H418" s="2"/>
+        <v>44890</v>
+      </c>
+      <c r="H418" s="2">
+        <v>44893</v>
+      </c>
       <c r="I418" t="s">
         <v>717</v>
       </c>
       <c r="J418" s="3">
-        <v>1316</v>
+        <v>1500</v>
       </c>
       <c r="K418" s="4">
-        <v>1316</v>
+        <v>1500</v>
       </c>
       <c r="L418" s="4">
         <v>0</v>
       </c>
       <c r="M418" s="4">
-        <v>1316</v>
+        <v>1500</v>
       </c>
       <c r="N418" s="4">
-        <v>1316</v>
+        <v>1500</v>
       </c>
       <c r="O418" s="4">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="P418" s="4">
-        <v>1316</v>
+        <v>25</v>
       </c>
       <c r="Q418" s="4">
         <v>0</v>
       </c>
       <c r="R418" s="4">
-        <v>1316</v>
+        <v>25</v>
       </c>
       <c r="S418" s="3">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="T418" s="4">
         <v>0</v>

--- a/public/excel/harian m.XLSX
+++ b/public/excel/harian m.XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="908">
   <si>
     <t>3000149940</t>
   </si>
@@ -2595,33 +2595,33 @@
     <t>TNG70335</t>
   </si>
   <si>
+    <t>3000150086</t>
+  </si>
+  <si>
+    <t>TNG70336</t>
+  </si>
+  <si>
     <t>3000150789</t>
   </si>
   <si>
-    <t>TNG70336</t>
-  </si>
-  <si>
-    <t>3000150086</t>
+    <t>3000150109</t>
+  </si>
+  <si>
+    <t>TNG70337</t>
+  </si>
+  <si>
+    <t>4100</t>
   </si>
   <si>
     <t>3000150110</t>
   </si>
   <si>
-    <t>TNG70337</t>
-  </si>
-  <si>
-    <t>4100</t>
-  </si>
-  <si>
     <t>3000150111</t>
   </si>
   <si>
     <t>3000150776</t>
   </si>
   <si>
-    <t>3000150109</t>
-  </si>
-  <si>
     <t>3000150093</t>
   </si>
   <si>
@@ -2632,6 +2632,42 @@
   </si>
   <si>
     <t>TNG70339</t>
+  </si>
+  <si>
+    <t>3000150972</t>
+  </si>
+  <si>
+    <t>TNG70368</t>
+  </si>
+  <si>
+    <t>3000150969</t>
+  </si>
+  <si>
+    <t>TNG70369</t>
+  </si>
+  <si>
+    <t>3000150970</t>
+  </si>
+  <si>
+    <t>TNG70370</t>
+  </si>
+  <si>
+    <t>3000150967</t>
+  </si>
+  <si>
+    <t>TNG70371</t>
+  </si>
+  <si>
+    <t>3000150968</t>
+  </si>
+  <si>
+    <t>TNG70372</t>
+  </si>
+  <si>
+    <t>3000150971</t>
+  </si>
+  <si>
+    <t>TNG70373</t>
   </si>
   <si>
     <t>3000147511</t>
@@ -3080,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W514"/>
+  <dimension ref="A1:W520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3113,73 +3149,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -8656,7 +8692,9 @@
       <c r="D79" s="2">
         <v>44972</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2">
+        <v>44957</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -8670,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="M79" s="4">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="N79" s="4">
         <v>0</v>
@@ -11995,7 +12033,7 @@
         <v>44945</v>
       </c>
       <c r="H126" s="2">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="I126" t="s">
         <v>232</v>
@@ -12774,7 +12812,7 @@
         <v>44945</v>
       </c>
       <c r="H137" s="2">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="I137" t="s">
         <v>284</v>
@@ -13341,7 +13379,9 @@
       <c r="G145" s="2">
         <v>44953</v>
       </c>
-      <c r="H145" s="2"/>
+      <c r="H145" s="2">
+        <v>44957</v>
+      </c>
       <c r="I145" t="s">
         <v>35</v>
       </c>
@@ -13373,7 +13413,7 @@
         <v>9</v>
       </c>
       <c r="S145" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T145" s="4">
         <v>0</v>
@@ -13404,9 +13444,15 @@
       <c r="E146" s="2">
         <v>44956</v>
       </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="F146" s="2">
+        <v>44957</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44957</v>
+      </c>
+      <c r="H146" s="2">
+        <v>44957</v>
+      </c>
       <c r="I146" t="s">
         <v>35</v>
       </c>
@@ -13423,22 +13469,22 @@
         <v>8</v>
       </c>
       <c r="N146" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O146" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P146" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q146" s="4">
         <v>0</v>
       </c>
       <c r="R146" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S146" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T146" s="4">
         <v>0</v>
@@ -13450,7 +13496,7 @@
         <v>134</v>
       </c>
       <c r="W146" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
@@ -14257,7 +14303,7 @@
         <v>44945</v>
       </c>
       <c r="H158" s="2">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="I158" t="s">
         <v>327</v>
@@ -14399,7 +14445,7 @@
         <v>44945</v>
       </c>
       <c r="H160" s="2">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="I160" t="s">
         <v>333</v>
@@ -20846,7 +20892,9 @@
       <c r="D251" s="2">
         <v>44972</v>
       </c>
-      <c r="E251" s="2"/>
+      <c r="E251" s="2">
+        <v>44957</v>
+      </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
@@ -20860,10 +20908,10 @@
         <v>0</v>
       </c>
       <c r="L251" s="4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M251" s="4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N251" s="4">
         <v>0</v>
@@ -35588,7 +35636,7 @@
         <v>44943</v>
       </c>
       <c r="H459" s="2">
-        <v>44945</v>
+        <v>44952</v>
       </c>
       <c r="I459" t="s">
         <v>793</v>
@@ -38841,13 +38889,13 @@
         <v>44953</v>
       </c>
       <c r="E505" s="2">
+        <v>44948</v>
+      </c>
+      <c r="F505" s="2">
         <v>44952</v>
       </c>
-      <c r="F505" s="2">
-        <v>44953</v>
-      </c>
       <c r="G505" s="2">
-        <v>44953</v>
+        <v>44952</v>
       </c>
       <c r="H505" s="2">
         <v>44953</v>
@@ -38856,40 +38904,40 @@
         <v>287</v>
       </c>
       <c r="J505" s="3">
-        <v>54</v>
+        <v>1454</v>
       </c>
       <c r="K505" s="4">
         <v>0</v>
       </c>
       <c r="L505" s="4">
-        <v>54</v>
+        <v>1454</v>
       </c>
       <c r="M505" s="4">
-        <v>54</v>
+        <v>1454</v>
       </c>
       <c r="N505" s="4">
-        <v>54</v>
+        <v>1454</v>
       </c>
       <c r="O505" s="4">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="P505" s="4">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="Q505" s="4">
         <v>0</v>
       </c>
       <c r="R505" s="4">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="S505" s="3">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="T505" s="4">
         <v>0</v>
       </c>
       <c r="U505" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="V505" t="s">
         <v>134</v>
@@ -38912,13 +38960,13 @@
         <v>44953</v>
       </c>
       <c r="E506" s="2">
-        <v>44948</v>
+        <v>44952</v>
       </c>
       <c r="F506" s="2">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="G506" s="2">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="H506" s="2">
         <v>44953</v>
@@ -38927,40 +38975,40 @@
         <v>287</v>
       </c>
       <c r="J506" s="3">
-        <v>1454</v>
+        <v>54</v>
       </c>
       <c r="K506" s="4">
         <v>0</v>
       </c>
       <c r="L506" s="4">
-        <v>1454</v>
+        <v>54</v>
       </c>
       <c r="M506" s="4">
-        <v>1454</v>
+        <v>54</v>
       </c>
       <c r="N506" s="4">
-        <v>1454</v>
+        <v>54</v>
       </c>
       <c r="O506" s="4">
-        <v>1350</v>
+        <v>50</v>
       </c>
       <c r="P506" s="4">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="Q506" s="4">
         <v>0</v>
       </c>
       <c r="R506" s="4">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="S506" s="3">
-        <v>1350</v>
+        <v>50</v>
       </c>
       <c r="T506" s="4">
         <v>0</v>
       </c>
       <c r="U506" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="V506" t="s">
         <v>134</v>
@@ -38989,10 +39037,10 @@
         <v>44952</v>
       </c>
       <c r="G507" s="2">
+        <v>44952</v>
+      </c>
+      <c r="H507" s="2">
         <v>44953</v>
-      </c>
-      <c r="H507" s="2">
-        <v>44956</v>
       </c>
       <c r="I507" t="s">
         <v>863</v>
@@ -39069,34 +39117,34 @@
         <v>863</v>
       </c>
       <c r="J508" s="3">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="K508" s="4">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="L508" s="4">
         <v>0</v>
       </c>
       <c r="M508" s="4">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="N508" s="4">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="O508" s="4">
-        <v>575</v>
+        <v>1500</v>
       </c>
       <c r="P508" s="4">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="Q508" s="4">
         <v>0</v>
       </c>
       <c r="R508" s="4">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="S508" s="3">
-        <v>575</v>
+        <v>1500</v>
       </c>
       <c r="T508" s="4">
         <v>0</v>
@@ -39125,13 +39173,13 @@
         <v>44953</v>
       </c>
       <c r="E509" s="2">
-        <v>44956</v>
+        <v>44947</v>
       </c>
       <c r="F509" s="2">
-        <v>44956</v>
+        <v>44952</v>
       </c>
       <c r="G509" s="2">
-        <v>44956</v>
+        <v>44953</v>
       </c>
       <c r="H509" s="2">
         <v>44956</v>
@@ -39140,40 +39188,40 @@
         <v>863</v>
       </c>
       <c r="J509" s="3">
-        <v>546</v>
+        <v>1230</v>
       </c>
       <c r="K509" s="4">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="L509" s="4">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="M509" s="4">
-        <v>546</v>
+        <v>1230</v>
       </c>
       <c r="N509" s="4">
-        <v>546</v>
+        <v>1230</v>
       </c>
       <c r="O509" s="4">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="P509" s="4">
-        <v>21</v>
+        <v>655</v>
       </c>
       <c r="Q509" s="4">
         <v>0</v>
       </c>
       <c r="R509" s="4">
-        <v>21</v>
+        <v>655</v>
       </c>
       <c r="S509" s="3">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="T509" s="4">
         <v>0</v>
       </c>
       <c r="U509" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="V509" t="s">
         <v>134</v>
@@ -39196,55 +39244,55 @@
         <v>44953</v>
       </c>
       <c r="E510" s="2">
-        <v>44947</v>
+        <v>44956</v>
       </c>
       <c r="F510" s="2">
-        <v>44952</v>
+        <v>44956</v>
       </c>
       <c r="G510" s="2">
-        <v>44952</v>
+        <v>44956</v>
       </c>
       <c r="H510" s="2">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="I510" t="s">
         <v>863</v>
       </c>
       <c r="J510" s="3">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="K510" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L510" s="4">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="M510" s="4">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="N510" s="4">
-        <v>1500</v>
+        <v>546</v>
       </c>
       <c r="O510" s="4">
-        <v>1500</v>
+        <v>525</v>
       </c>
       <c r="P510" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q510" s="4">
         <v>0</v>
       </c>
       <c r="R510" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S510" s="3">
-        <v>1500</v>
+        <v>525</v>
       </c>
       <c r="T510" s="4">
         <v>0</v>
       </c>
       <c r="U510" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="V510" t="s">
         <v>134</v>
@@ -39403,55 +39451,47 @@
         <v>872</v>
       </c>
       <c r="C513" s="2">
-        <v>44928</v>
+        <v>44957</v>
       </c>
       <c r="D513" s="2">
-        <v>44944</v>
-      </c>
-      <c r="E513" s="2">
-        <v>44935</v>
-      </c>
-      <c r="F513" s="2">
-        <v>44936</v>
-      </c>
-      <c r="G513" s="2">
-        <v>44937</v>
-      </c>
-      <c r="H513" s="2">
-        <v>44939</v>
-      </c>
+        <v>44973</v>
+      </c>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
       <c r="I513" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J513" s="3">
-        <v>98</v>
+        <v>520</v>
       </c>
       <c r="K513" s="4">
         <v>0</v>
       </c>
       <c r="L513" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="M513" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N513" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O513" s="4">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="P513" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q513" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R513" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S513" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T513" s="4">
         <v>0</v>
@@ -39463,63 +39503,449 @@
         <v>134</v>
       </c>
       <c r="W513" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>873</v>
+      </c>
+      <c r="B514" t="s">
+        <v>874</v>
+      </c>
+      <c r="C514" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D514" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
+      <c r="I514" t="s">
+        <v>16</v>
+      </c>
+      <c r="J514" s="3">
+        <v>210</v>
+      </c>
+      <c r="K514" s="4">
+        <v>0</v>
+      </c>
+      <c r="L514" s="4">
+        <v>0</v>
+      </c>
+      <c r="M514" s="4">
+        <v>0</v>
+      </c>
+      <c r="N514" s="4">
+        <v>0</v>
+      </c>
+      <c r="O514" s="4">
+        <v>0</v>
+      </c>
+      <c r="P514" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q514" s="4">
+        <v>0</v>
+      </c>
+      <c r="R514" s="4">
+        <v>0</v>
+      </c>
+      <c r="S514" s="3">
+        <v>0</v>
+      </c>
+      <c r="T514" s="4">
+        <v>0</v>
+      </c>
+      <c r="U514" t="s">
+        <v>133</v>
+      </c>
+      <c r="V514" t="s">
+        <v>134</v>
+      </c>
+      <c r="W514" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>875</v>
+      </c>
+      <c r="B515" t="s">
+        <v>876</v>
+      </c>
+      <c r="C515" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D515" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E515" s="2"/>
+      <c r="F515" s="2"/>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
+      <c r="I515" t="s">
+        <v>20</v>
+      </c>
+      <c r="J515" s="3">
+        <v>520</v>
+      </c>
+      <c r="K515" s="4">
+        <v>0</v>
+      </c>
+      <c r="L515" s="4">
+        <v>0</v>
+      </c>
+      <c r="M515" s="4">
+        <v>0</v>
+      </c>
+      <c r="N515" s="4">
+        <v>0</v>
+      </c>
+      <c r="O515" s="4">
+        <v>0</v>
+      </c>
+      <c r="P515" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q515" s="4">
+        <v>0</v>
+      </c>
+      <c r="R515" s="4">
+        <v>0</v>
+      </c>
+      <c r="S515" s="3">
+        <v>0</v>
+      </c>
+      <c r="T515" s="4">
+        <v>0</v>
+      </c>
+      <c r="U515" t="s">
+        <v>133</v>
+      </c>
+      <c r="V515" t="s">
+        <v>134</v>
+      </c>
+      <c r="W515" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>877</v>
+      </c>
+      <c r="B516" t="s">
+        <v>878</v>
+      </c>
+      <c r="C516" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D516" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
+      <c r="I516" t="s">
+        <v>284</v>
+      </c>
+      <c r="J516" s="3">
+        <v>728</v>
+      </c>
+      <c r="K516" s="4">
+        <v>0</v>
+      </c>
+      <c r="L516" s="4">
+        <v>0</v>
+      </c>
+      <c r="M516" s="4">
+        <v>0</v>
+      </c>
+      <c r="N516" s="4">
+        <v>0</v>
+      </c>
+      <c r="O516" s="4">
+        <v>0</v>
+      </c>
+      <c r="P516" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q516" s="4">
+        <v>0</v>
+      </c>
+      <c r="R516" s="4">
+        <v>0</v>
+      </c>
+      <c r="S516" s="3">
+        <v>0</v>
+      </c>
+      <c r="T516" s="4">
+        <v>0</v>
+      </c>
+      <c r="U516" t="s">
+        <v>133</v>
+      </c>
+      <c r="V516" t="s">
+        <v>134</v>
+      </c>
+      <c r="W516" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>879</v>
+      </c>
+      <c r="B517" t="s">
+        <v>880</v>
+      </c>
+      <c r="C517" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D517" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
+      <c r="I517" t="s">
+        <v>35</v>
+      </c>
+      <c r="J517" s="3">
+        <v>54</v>
+      </c>
+      <c r="K517" s="4">
+        <v>0</v>
+      </c>
+      <c r="L517" s="4">
+        <v>0</v>
+      </c>
+      <c r="M517" s="4">
+        <v>0</v>
+      </c>
+      <c r="N517" s="4">
+        <v>0</v>
+      </c>
+      <c r="O517" s="4">
+        <v>0</v>
+      </c>
+      <c r="P517" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="4">
+        <v>0</v>
+      </c>
+      <c r="R517" s="4">
+        <v>0</v>
+      </c>
+      <c r="S517" s="3">
+        <v>0</v>
+      </c>
+      <c r="T517" s="4">
+        <v>0</v>
+      </c>
+      <c r="U517" t="s">
+        <v>133</v>
+      </c>
+      <c r="V517" t="s">
+        <v>134</v>
+      </c>
+      <c r="W517" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>881</v>
+      </c>
+      <c r="B518" t="s">
+        <v>882</v>
+      </c>
+      <c r="C518" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D518" s="2">
+        <v>44973</v>
+      </c>
+      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
+      <c r="G518" s="2"/>
+      <c r="H518" s="2"/>
+      <c r="I518" t="s">
+        <v>91</v>
+      </c>
+      <c r="J518" s="3">
+        <v>48</v>
+      </c>
+      <c r="K518" s="4">
+        <v>0</v>
+      </c>
+      <c r="L518" s="4">
+        <v>0</v>
+      </c>
+      <c r="M518" s="4">
+        <v>0</v>
+      </c>
+      <c r="N518" s="4">
+        <v>0</v>
+      </c>
+      <c r="O518" s="4">
+        <v>0</v>
+      </c>
+      <c r="P518" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q518" s="4">
+        <v>0</v>
+      </c>
+      <c r="R518" s="4">
+        <v>0</v>
+      </c>
+      <c r="S518" s="3">
+        <v>0</v>
+      </c>
+      <c r="T518" s="4">
+        <v>0</v>
+      </c>
+      <c r="U518" t="s">
+        <v>133</v>
+      </c>
+      <c r="V518" t="s">
+        <v>134</v>
+      </c>
+      <c r="W518" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>883</v>
+      </c>
+      <c r="B519" t="s">
+        <v>884</v>
+      </c>
+      <c r="C519" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D519" s="2">
+        <v>44944</v>
+      </c>
+      <c r="E519" s="2">
+        <v>44935</v>
+      </c>
+      <c r="F519" s="2">
+        <v>44936</v>
+      </c>
+      <c r="G519" s="2">
+        <v>44937</v>
+      </c>
+      <c r="H519" s="2">
+        <v>44939</v>
+      </c>
+      <c r="I519" t="s">
+        <v>114</v>
+      </c>
+      <c r="J519" s="3">
+        <v>98</v>
+      </c>
+      <c r="K519" s="4">
+        <v>0</v>
+      </c>
+      <c r="L519" s="4">
+        <v>98</v>
+      </c>
+      <c r="M519" s="4">
+        <v>98</v>
+      </c>
+      <c r="N519" s="4">
+        <v>98</v>
+      </c>
+      <c r="O519" s="4">
+        <v>94</v>
+      </c>
+      <c r="P519" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q519" s="4">
+        <v>4</v>
+      </c>
+      <c r="R519" s="4">
+        <v>8</v>
+      </c>
+      <c r="S519" s="3">
+        <v>90</v>
+      </c>
+      <c r="T519" s="4">
+        <v>0</v>
+      </c>
+      <c r="U519" t="s">
+        <v>133</v>
+      </c>
+      <c r="V519" t="s">
+        <v>134</v>
+      </c>
+      <c r="W519" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A514" s="5" t="s">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A520" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B514" s="5" t="s">
+      <c r="B520" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C514" s="6"/>
-      <c r="D514" s="6"/>
-      <c r="E514" s="6"/>
-      <c r="F514" s="6"/>
-      <c r="G514" s="6"/>
-      <c r="H514" s="6"/>
-      <c r="I514" s="5" t="s">
+      <c r="C520" s="6"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+      <c r="G520" s="6"/>
+      <c r="H520" s="6"/>
+      <c r="I520" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J514" s="7">
-        <v>410798</v>
-      </c>
-      <c r="K514" s="8">
+      <c r="J520" s="7">
+        <v>412878</v>
+      </c>
+      <c r="K520" s="8">
         <v>345486</v>
       </c>
-      <c r="L514" s="8">
-        <v>64328</v>
-      </c>
-      <c r="M514" s="8">
+      <c r="L520" s="8">
+        <v>65298</v>
+      </c>
+      <c r="M520" s="8">
+        <v>410784</v>
+      </c>
+      <c r="N520" s="8">
         <v>409814</v>
       </c>
-      <c r="N514" s="8">
-        <v>409806</v>
-      </c>
-      <c r="O514" s="8">
-        <v>387617</v>
-      </c>
-      <c r="P514" s="8">
-        <v>22189</v>
-      </c>
-      <c r="Q514" s="8">
+      <c r="O520" s="8">
+        <v>387622</v>
+      </c>
+      <c r="P520" s="8">
+        <v>22192</v>
+      </c>
+      <c r="Q520" s="8">
         <v>1312</v>
       </c>
-      <c r="R514" s="8">
-        <v>23501</v>
-      </c>
-      <c r="S514" s="7">
-        <v>386260</v>
-      </c>
-      <c r="T514" s="7"/>
-      <c r="U514" s="5" t="s">
+      <c r="R520" s="8">
+        <v>23504</v>
+      </c>
+      <c r="S520" s="7">
+        <v>386310</v>
+      </c>
+      <c r="T520" s="7"/>
+      <c r="U520" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="V514" s="5" t="s">
+      <c r="V520" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="W514" s="5" t="s">
+      <c r="W520" s="5" t="s">
         <v>168</v>
       </c>
     </row>

--- a/public/excel/harian m.XLSX
+++ b/public/excel/harian m.XLSX
@@ -66,6 +66,9 @@
     <t>50</t>
   </si>
   <si>
+    <t>TGN-1002</t>
+  </si>
+  <si>
     <t>3000153614</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
   </si>
   <si>
     <t>BND231144</t>
-  </si>
-  <si>
-    <t>TGN-1002</t>
   </si>
   <si>
     <t>3000151138</t>
@@ -3392,7 +3392,7 @@
   <dimension ref="A1:W554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3771,7 +3771,9 @@
       <c r="E6" s="2">
         <v>44968</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>44972</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
@@ -3790,7 +3792,7 @@
         <v>54</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -3817,15 +3819,15 @@
         <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>44970</v>
@@ -3838,7 +3840,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3">
         <v>98</v>
@@ -3885,10 +3887,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44970</v>
@@ -3901,7 +3903,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3">
         <v>262</v>
@@ -3948,10 +3950,10 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>44970</v>
@@ -4011,10 +4013,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>44970</v>
@@ -4027,7 +4029,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>1040</v>
@@ -4074,10 +4076,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>44970</v>
@@ -4090,7 +4092,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3">
         <v>520</v>
@@ -4137,10 +4139,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>44970</v>
@@ -4153,7 +4155,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3">
         <v>210</v>
@@ -4200,10 +4202,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>44970</v>
@@ -4216,7 +4218,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3">
         <v>106</v>
@@ -4263,10 +4265,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>44966</v>
@@ -4279,7 +4281,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3">
         <v>24</v>
@@ -4326,10 +4328,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>44966</v>
@@ -4342,7 +4344,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="3">
         <v>36</v>
@@ -4389,10 +4391,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>44966</v>
@@ -4405,7 +4407,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="3">
         <v>106</v>
@@ -4452,10 +4454,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
         <v>44958</v>
@@ -4476,7 +4478,7 @@
         <v>44966</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="3">
         <v>106</v>
@@ -4518,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="W17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -4589,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="W18" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -4618,7 +4620,7 @@
         <v>44966</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3">
         <v>520</v>
@@ -4660,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="W19" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4731,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="W20" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -4942,7 +4944,7 @@
         <v>4</v>
       </c>
       <c r="W23" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -5182,7 +5184,7 @@
         <v>44966</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="3">
         <v>520</v>
@@ -5224,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="W27" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -5366,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="W29" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -5677,7 +5679,7 @@
         <v>44967</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34" s="3">
         <v>210</v>
@@ -5819,7 +5821,7 @@
         <v>44966</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="3">
         <v>210</v>
@@ -6237,7 +6239,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J42" s="3">
         <v>520</v>
@@ -6493,7 +6495,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J46" s="3">
         <v>106</v>
@@ -6558,7 +6560,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" s="3">
         <v>520</v>
@@ -6621,7 +6623,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J48" s="3">
         <v>24</v>
@@ -6684,7 +6686,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J49" s="3">
         <v>24</v>
@@ -6873,7 +6875,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" s="3">
         <v>262</v>
@@ -6936,7 +6938,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="3">
         <v>210</v>
@@ -7062,7 +7064,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J55" s="3">
         <v>520</v>
@@ -7125,7 +7127,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J56" s="3">
         <v>106</v>
@@ -7188,7 +7190,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" s="3">
         <v>1040</v>
@@ -7251,7 +7253,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="3">
         <v>210</v>
@@ -7314,7 +7316,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J59" s="3">
         <v>106</v>
@@ -7574,7 +7576,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J63" s="3">
         <v>210</v>
@@ -7635,7 +7637,9 @@
       <c r="E64" s="2">
         <v>44966</v>
       </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2">
+        <v>44972</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
@@ -7654,7 +7658,7 @@
         <v>54</v>
       </c>
       <c r="N64" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
@@ -7681,7 +7685,7 @@
         <v>4</v>
       </c>
       <c r="W64" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
@@ -7704,7 +7708,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J65" s="3">
         <v>210</v>
@@ -8029,7 +8033,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J70" s="3">
         <v>106</v>
@@ -8092,7 +8096,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="3">
         <v>210</v>
@@ -8406,7 +8410,7 @@
         <v>166</v>
       </c>
       <c r="W75" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
@@ -9640,7 +9644,7 @@
         <v>44967</v>
       </c>
       <c r="I93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J93" s="3">
         <v>520</v>
@@ -9977,7 +9981,7 @@
         <v>44967</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J98" s="3">
         <v>36</v>
@@ -10113,7 +10117,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J100" s="3">
         <v>98</v>
@@ -10174,7 +10178,9 @@
       <c r="E101" s="2">
         <v>44968</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="2">
+        <v>44972</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
@@ -10193,7 +10199,7 @@
         <v>54</v>
       </c>
       <c r="N101" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O101" s="4">
         <v>0</v>
@@ -10220,7 +10226,7 @@
         <v>4</v>
       </c>
       <c r="W101" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
@@ -10239,11 +10245,13 @@
       <c r="E102" s="2">
         <v>44968</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2">
+        <v>44972</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J102" s="3">
         <v>520</v>
@@ -10258,7 +10266,7 @@
         <v>520</v>
       </c>
       <c r="N102" s="4">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="O102" s="4">
         <v>0</v>
@@ -10285,7 +10293,7 @@
         <v>4</v>
       </c>
       <c r="W102" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
@@ -10306,7 +10314,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J103" s="3">
         <v>24</v>
@@ -10564,7 +10572,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J107" s="3">
         <v>36</v>
@@ -10771,7 +10779,7 @@
         <v>44964</v>
       </c>
       <c r="I110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J110" s="3">
         <v>106</v>
@@ -10813,7 +10821,7 @@
         <v>166</v>
       </c>
       <c r="W110" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
@@ -10884,7 +10892,7 @@
         <v>166</v>
       </c>
       <c r="W111" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
@@ -11168,7 +11176,7 @@
         <v>166</v>
       </c>
       <c r="W115" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
@@ -11239,7 +11247,7 @@
         <v>166</v>
       </c>
       <c r="W116" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
@@ -11310,7 +11318,7 @@
         <v>166</v>
       </c>
       <c r="W117" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
@@ -11381,7 +11389,7 @@
         <v>166</v>
       </c>
       <c r="W118" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
@@ -11452,7 +11460,7 @@
         <v>166</v>
       </c>
       <c r="W119" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
@@ -11481,7 +11489,7 @@
         <v>44967</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120" s="3">
         <v>36</v>
@@ -11523,7 +11531,7 @@
         <v>166</v>
       </c>
       <c r="W120" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
@@ -11736,7 +11744,7 @@
         <v>166</v>
       </c>
       <c r="W123" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
@@ -11807,7 +11815,7 @@
         <v>166</v>
       </c>
       <c r="W124" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
@@ -11878,7 +11886,7 @@
         <v>166</v>
       </c>
       <c r="W125" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
@@ -11949,7 +11957,7 @@
         <v>166</v>
       </c>
       <c r="W126" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
@@ -11978,7 +11986,7 @@
         <v>44967</v>
       </c>
       <c r="I127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J127" s="3">
         <v>98</v>
@@ -12020,7 +12028,7 @@
         <v>166</v>
       </c>
       <c r="W127" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
@@ -12087,7 +12095,7 @@
         <v>166</v>
       </c>
       <c r="W128" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
@@ -12254,7 +12262,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J131" s="3">
         <v>24</v>
@@ -12296,7 +12304,7 @@
         <v>166</v>
       </c>
       <c r="W131" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
@@ -12321,7 +12329,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132" s="3">
         <v>36</v>
@@ -12363,7 +12371,7 @@
         <v>166</v>
       </c>
       <c r="W132" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
@@ -12743,7 +12751,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J138" s="3">
         <v>106</v>
@@ -12785,7 +12793,7 @@
         <v>166</v>
       </c>
       <c r="W138" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
@@ -12852,7 +12860,7 @@
         <v>166</v>
       </c>
       <c r="W139" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
@@ -13197,7 +13205,7 @@
         <v>166</v>
       </c>
       <c r="W144" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
@@ -13364,7 +13372,7 @@
       </c>
       <c r="H147" s="2"/>
       <c r="I147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J147" s="3">
         <v>210</v>
@@ -13429,7 +13437,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J148" s="3">
         <v>54</v>
@@ -13500,7 +13508,7 @@
         <v>44972</v>
       </c>
       <c r="I149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J149" s="3">
         <v>520</v>
@@ -14033,7 +14041,7 @@
         <v>166</v>
       </c>
       <c r="W156" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
@@ -14100,7 +14108,7 @@
         <v>166</v>
       </c>
       <c r="W157" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
@@ -14167,7 +14175,7 @@
         <v>166</v>
       </c>
       <c r="W158" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
@@ -14234,7 +14242,7 @@
         <v>166</v>
       </c>
       <c r="W159" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
@@ -14443,7 +14451,7 @@
         <v>166</v>
       </c>
       <c r="W162" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
@@ -14723,7 +14731,7 @@
         <v>166</v>
       </c>
       <c r="W166" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
@@ -14790,7 +14798,7 @@
         <v>166</v>
       </c>
       <c r="W167" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
@@ -14928,7 +14936,7 @@
         <v>166</v>
       </c>
       <c r="W169" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
@@ -15350,7 +15358,7 @@
         <v>166</v>
       </c>
       <c r="W175" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
@@ -15881,7 +15889,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J184" s="3">
         <v>36</v>
@@ -16141,7 +16149,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J188" s="3">
         <v>24</v>
@@ -16336,7 +16344,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J191" s="3">
         <v>106</v>
@@ -16401,7 +16409,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J192" s="3">
         <v>106</v>
@@ -16923,7 +16931,7 @@
         <v>44966</v>
       </c>
       <c r="I200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J200" s="3">
         <v>106</v>
@@ -16965,7 +16973,7 @@
         <v>4</v>
       </c>
       <c r="W200" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
@@ -16994,7 +17002,7 @@
         <v>44966</v>
       </c>
       <c r="I201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J201" s="3">
         <v>106</v>
@@ -17036,7 +17044,7 @@
         <v>4</v>
       </c>
       <c r="W201" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
@@ -17107,7 +17115,7 @@
         <v>4</v>
       </c>
       <c r="W202" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
@@ -17178,7 +17186,7 @@
         <v>4</v>
       </c>
       <c r="W203" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
@@ -17278,7 +17286,7 @@
         <v>44966</v>
       </c>
       <c r="I205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J205" s="3">
         <v>106</v>
@@ -17341,7 +17349,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J206" s="3">
         <v>520</v>
@@ -17406,7 +17414,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J207" s="3">
         <v>520</v>
@@ -17467,7 +17475,9 @@
       <c r="E208" s="2">
         <v>44966</v>
       </c>
-      <c r="F208" s="2"/>
+      <c r="F208" s="2">
+        <v>44972</v>
+      </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" t="s">
@@ -17486,7 +17496,7 @@
         <v>14</v>
       </c>
       <c r="N208" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O208" s="4">
         <v>0</v>
@@ -17513,7 +17523,7 @@
         <v>4</v>
       </c>
       <c r="W208" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.2">
@@ -17532,7 +17542,9 @@
       <c r="E209" s="2">
         <v>44966</v>
       </c>
-      <c r="F209" s="2"/>
+      <c r="F209" s="2">
+        <v>44972</v>
+      </c>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" t="s">
@@ -17551,7 +17563,7 @@
         <v>14</v>
       </c>
       <c r="N209" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O209" s="4">
         <v>0</v>
@@ -17578,7 +17590,7 @@
         <v>4</v>
       </c>
       <c r="W209" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.2">
@@ -17597,7 +17609,9 @@
       <c r="E210" s="2">
         <v>44966</v>
       </c>
-      <c r="F210" s="2"/>
+      <c r="F210" s="2">
+        <v>44972</v>
+      </c>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" t="s">
@@ -17616,7 +17630,7 @@
         <v>14</v>
       </c>
       <c r="N210" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O210" s="4">
         <v>0</v>
@@ -17643,7 +17657,7 @@
         <v>4</v>
       </c>
       <c r="W210" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.2">
@@ -17879,7 +17893,7 @@
         <v>44971</v>
       </c>
       <c r="I214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J214" s="3">
         <v>24</v>
@@ -17942,7 +17956,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J215" s="3">
         <v>106</v>
@@ -18005,7 +18019,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J216" s="3">
         <v>106</v>
@@ -18325,7 +18339,7 @@
         <v>166</v>
       </c>
       <c r="W220" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.2">
@@ -19277,7 +19291,7 @@
         <v>44972</v>
       </c>
       <c r="I234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J234" s="3">
         <v>106</v>
@@ -19413,7 +19427,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J236" s="3">
         <v>210</v>
@@ -19478,7 +19492,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J237" s="3">
         <v>210</v>
@@ -19549,7 +19563,7 @@
         <v>44967</v>
       </c>
       <c r="I238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J238" s="3">
         <v>210</v>
@@ -19591,7 +19605,7 @@
         <v>166</v>
       </c>
       <c r="W238" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
@@ -19620,7 +19634,7 @@
         <v>44967</v>
       </c>
       <c r="I239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J239" s="3">
         <v>24</v>
@@ -19662,7 +19676,7 @@
         <v>166</v>
       </c>
       <c r="W239" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.2">
@@ -19733,7 +19747,7 @@
         <v>166</v>
       </c>
       <c r="W240" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.2">
@@ -19752,7 +19766,9 @@
       <c r="E241" s="2">
         <v>44964</v>
       </c>
-      <c r="F241" s="2"/>
+      <c r="F241" s="2">
+        <v>44972</v>
+      </c>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" t="s">
@@ -19771,7 +19787,7 @@
         <v>54</v>
       </c>
       <c r="N241" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O241" s="4">
         <v>0</v>
@@ -19798,7 +19814,7 @@
         <v>166</v>
       </c>
       <c r="W241" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.2">
@@ -20028,7 +20044,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J245" s="3">
         <v>36</v>
@@ -20093,7 +20109,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J246" s="3">
         <v>24</v>
@@ -20164,7 +20180,7 @@
         <v>44966</v>
       </c>
       <c r="I247" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J247" s="3">
         <v>520</v>
@@ -20206,7 +20222,7 @@
         <v>4</v>
       </c>
       <c r="W247" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.2">
@@ -20235,7 +20251,7 @@
         <v>44966</v>
       </c>
       <c r="I248" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J248" s="3">
         <v>520</v>
@@ -20277,7 +20293,7 @@
         <v>4</v>
       </c>
       <c r="W248" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.2">
@@ -20306,7 +20322,7 @@
         <v>44966</v>
       </c>
       <c r="I249" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J249" s="3">
         <v>24</v>
@@ -20377,7 +20393,7 @@
         <v>44972</v>
       </c>
       <c r="I250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J250" s="3">
         <v>106</v>
@@ -20448,7 +20464,7 @@
         <v>44971</v>
       </c>
       <c r="I251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J251" s="3">
         <v>106</v>
@@ -20561,7 +20577,7 @@
         <v>166</v>
       </c>
       <c r="W252" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.2">
@@ -20632,7 +20648,7 @@
         <v>166</v>
       </c>
       <c r="W253" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.2">
@@ -20774,7 +20790,7 @@
         <v>166</v>
       </c>
       <c r="W255" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.2">
@@ -20841,7 +20857,7 @@
         <v>166</v>
       </c>
       <c r="W256" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.2">
@@ -21180,7 +21196,7 @@
         <v>166</v>
       </c>
       <c r="W261" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.2">
@@ -21209,7 +21225,7 @@
         <v>44972</v>
       </c>
       <c r="I262" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J262" s="3">
         <v>98</v>
@@ -21339,7 +21355,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J264" s="3">
         <v>24</v>
@@ -21410,7 +21426,7 @@
         <v>44966</v>
       </c>
       <c r="I265" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J265" s="3">
         <v>520</v>
@@ -21452,7 +21468,7 @@
         <v>4</v>
       </c>
       <c r="W265" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.2">
@@ -21481,7 +21497,7 @@
         <v>44966</v>
       </c>
       <c r="I266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J266" s="3">
         <v>106</v>
@@ -21737,11 +21753,13 @@
       <c r="E270" s="2">
         <v>44966</v>
       </c>
-      <c r="F270" s="2"/>
+      <c r="F270" s="2">
+        <v>44972</v>
+      </c>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J270" s="3">
         <v>106</v>
@@ -21756,7 +21774,7 @@
         <v>106</v>
       </c>
       <c r="N270" s="4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O270" s="4">
         <v>0</v>
@@ -21783,7 +21801,7 @@
         <v>4</v>
       </c>
       <c r="W270" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.2">
@@ -21802,11 +21820,13 @@
       <c r="E271" s="2">
         <v>44966</v>
       </c>
-      <c r="F271" s="2"/>
+      <c r="F271" s="2">
+        <v>44972</v>
+      </c>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J271" s="3">
         <v>210</v>
@@ -21821,7 +21841,7 @@
         <v>210</v>
       </c>
       <c r="N271" s="4">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O271" s="4">
         <v>0</v>
@@ -21848,7 +21868,7 @@
         <v>4</v>
       </c>
       <c r="W271" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.2">
@@ -21997,7 +22017,9 @@
       <c r="E274" s="2">
         <v>44964</v>
       </c>
-      <c r="F274" s="2"/>
+      <c r="F274" s="2">
+        <v>44972</v>
+      </c>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" t="s">
@@ -22016,7 +22038,7 @@
         <v>314</v>
       </c>
       <c r="N274" s="4">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="O274" s="4">
         <v>0</v>
@@ -22043,7 +22065,7 @@
         <v>166</v>
       </c>
       <c r="W274" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.2">
@@ -22062,7 +22084,9 @@
       <c r="E275" s="2">
         <v>44964</v>
       </c>
-      <c r="F275" s="2"/>
+      <c r="F275" s="2">
+        <v>44972</v>
+      </c>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" t="s">
@@ -22081,7 +22105,7 @@
         <v>54</v>
       </c>
       <c r="N275" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O275" s="4">
         <v>0</v>
@@ -22108,7 +22132,7 @@
         <v>166</v>
       </c>
       <c r="W275" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.2">
@@ -22137,7 +22161,7 @@
         <v>44972</v>
       </c>
       <c r="I276" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J276" s="3">
         <v>106</v>
@@ -22208,7 +22232,7 @@
         <v>44972</v>
       </c>
       <c r="I277" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J277" s="3">
         <v>106</v>
@@ -22273,7 +22297,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J278" s="3">
         <v>1040</v>
@@ -22409,7 +22433,7 @@
         <v>44971</v>
       </c>
       <c r="I280" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J280" s="3">
         <v>1040</v>
@@ -22451,7 +22475,7 @@
         <v>166</v>
       </c>
       <c r="W280" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.2">
@@ -23610,7 +23634,7 @@
         <v>44972</v>
       </c>
       <c r="I297" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J297" s="3">
         <v>210</v>
@@ -23752,7 +23776,7 @@
         <v>44967</v>
       </c>
       <c r="I299" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J299" s="3">
         <v>520</v>
@@ -23886,7 +23910,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J301" s="3">
         <v>24</v>
@@ -23947,11 +23971,13 @@
       <c r="E302" s="2">
         <v>44971</v>
       </c>
-      <c r="F302" s="2"/>
+      <c r="F302" s="2">
+        <v>44972</v>
+      </c>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J302" s="3">
         <v>1040</v>
@@ -23966,7 +23992,7 @@
         <v>1040</v>
       </c>
       <c r="N302" s="4">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="O302" s="4">
         <v>0</v>
@@ -23993,7 +24019,7 @@
         <v>4</v>
       </c>
       <c r="W302" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.2">
@@ -24012,11 +24038,13 @@
       <c r="E303" s="2">
         <v>44971</v>
       </c>
-      <c r="F303" s="2"/>
+      <c r="F303" s="2">
+        <v>44972</v>
+      </c>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J303" s="3">
         <v>1040</v>
@@ -24031,7 +24059,7 @@
         <v>1040</v>
       </c>
       <c r="N303" s="4">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="O303" s="4">
         <v>0</v>
@@ -24058,7 +24086,7 @@
         <v>4</v>
       </c>
       <c r="W303" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.2">
@@ -24077,7 +24105,9 @@
       <c r="E304" s="2">
         <v>44966</v>
       </c>
-      <c r="F304" s="2"/>
+      <c r="F304" s="2">
+        <v>44972</v>
+      </c>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" t="s">
@@ -24096,7 +24126,7 @@
         <v>54</v>
       </c>
       <c r="N304" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O304" s="4">
         <v>0</v>
@@ -24123,7 +24153,7 @@
         <v>4</v>
       </c>
       <c r="W304" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.2">
@@ -24142,7 +24172,9 @@
       <c r="E305" s="2">
         <v>44966</v>
       </c>
-      <c r="F305" s="2"/>
+      <c r="F305" s="2">
+        <v>44972</v>
+      </c>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" t="s">
@@ -24161,7 +24193,7 @@
         <v>54</v>
       </c>
       <c r="N305" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O305" s="4">
         <v>0</v>
@@ -24188,7 +24220,7 @@
         <v>4</v>
       </c>
       <c r="W305" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.2">
@@ -24542,7 +24574,7 @@
         <v>44972</v>
       </c>
       <c r="I311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J311" s="3">
         <v>210</v>
@@ -24613,7 +24645,7 @@
         <v>44972</v>
       </c>
       <c r="I312" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J312" s="3">
         <v>24</v>
@@ -25082,7 +25114,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J319" s="3">
         <v>98</v>
@@ -25124,7 +25156,7 @@
         <v>4</v>
       </c>
       <c r="W319" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.2">
@@ -25195,7 +25227,7 @@
         <v>4</v>
       </c>
       <c r="W320" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.2">
@@ -25224,7 +25256,7 @@
         <v>44971</v>
       </c>
       <c r="I321" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J321" s="3">
         <v>520</v>
@@ -25295,7 +25327,7 @@
         <v>44972</v>
       </c>
       <c r="I322" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J322" s="3">
         <v>24</v>
@@ -25479,7 +25511,7 @@
         <v>4</v>
       </c>
       <c r="W324" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.2">
@@ -25550,7 +25582,7 @@
         <v>4</v>
       </c>
       <c r="W325" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.2">
@@ -25569,7 +25601,9 @@
       <c r="E326" s="2">
         <v>44966</v>
       </c>
-      <c r="F326" s="2"/>
+      <c r="F326" s="2">
+        <v>44972</v>
+      </c>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" t="s">
@@ -25588,7 +25622,7 @@
         <v>418</v>
       </c>
       <c r="N326" s="4">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="O326" s="4">
         <v>0</v>
@@ -25615,7 +25649,7 @@
         <v>4</v>
       </c>
       <c r="W326" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.2">
@@ -25634,7 +25668,9 @@
       <c r="E327" s="2">
         <v>44966</v>
       </c>
-      <c r="F327" s="2"/>
+      <c r="F327" s="2">
+        <v>44972</v>
+      </c>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" t="s">
@@ -25653,7 +25689,7 @@
         <v>624</v>
       </c>
       <c r="N327" s="4">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="O327" s="4">
         <v>0</v>
@@ -25680,7 +25716,7 @@
         <v>4</v>
       </c>
       <c r="W327" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.2">
@@ -25701,7 +25737,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J328" s="3">
         <v>24</v>
@@ -25762,11 +25798,13 @@
       <c r="E329" s="2">
         <v>44966</v>
       </c>
-      <c r="F329" s="2"/>
+      <c r="F329" s="2">
+        <v>44972</v>
+      </c>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J329" s="3">
         <v>24</v>
@@ -25781,7 +25819,7 @@
         <v>24</v>
       </c>
       <c r="N329" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O329" s="4">
         <v>0</v>
@@ -25808,7 +25846,7 @@
         <v>4</v>
       </c>
       <c r="W329" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.2">
@@ -25827,11 +25865,13 @@
       <c r="E330" s="2">
         <v>44966</v>
       </c>
-      <c r="F330" s="2"/>
+      <c r="F330" s="2">
+        <v>44972</v>
+      </c>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J330" s="3">
         <v>210</v>
@@ -25846,7 +25886,7 @@
         <v>210</v>
       </c>
       <c r="N330" s="4">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O330" s="4">
         <v>0</v>
@@ -25873,7 +25913,7 @@
         <v>4</v>
       </c>
       <c r="W330" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.2">
@@ -26999,7 +27039,7 @@
         <v>166</v>
       </c>
       <c r="W346" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.2">
@@ -28233,7 +28273,7 @@
         <v>44971</v>
       </c>
       <c r="I364" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J364" s="3">
         <v>24</v>
@@ -32616,7 +32656,7 @@
         <v>44966</v>
       </c>
       <c r="I429" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J429" s="3">
         <v>106</v>
@@ -32658,7 +32698,7 @@
         <v>4</v>
       </c>
       <c r="W429" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.2">
@@ -32800,7 +32840,7 @@
         <v>4</v>
       </c>
       <c r="W431" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.2">
@@ -32823,7 +32863,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J432" s="3">
         <v>520</v>
@@ -32884,7 +32924,9 @@
       <c r="E433" s="2">
         <v>44966</v>
       </c>
-      <c r="F433" s="2"/>
+      <c r="F433" s="2">
+        <v>44972</v>
+      </c>
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" t="s">
@@ -32903,7 +32945,7 @@
         <v>178</v>
       </c>
       <c r="N433" s="4">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="O433" s="4">
         <v>0</v>
@@ -32930,7 +32972,7 @@
         <v>4</v>
       </c>
       <c r="W433" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:23" x14ac:dyDescent="0.2">
@@ -33209,11 +33251,13 @@
       <c r="E438" s="2">
         <v>44966</v>
       </c>
-      <c r="F438" s="2"/>
+      <c r="F438" s="2">
+        <v>44972</v>
+      </c>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J438" s="3">
         <v>520</v>
@@ -33228,7 +33272,7 @@
         <v>520</v>
       </c>
       <c r="N438" s="4">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="O438" s="4">
         <v>0</v>
@@ -33255,7 +33299,7 @@
         <v>4</v>
       </c>
       <c r="W438" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439" spans="1:23" x14ac:dyDescent="0.2">
@@ -33274,11 +33318,13 @@
       <c r="E439" s="2">
         <v>44966</v>
       </c>
-      <c r="F439" s="2"/>
+      <c r="F439" s="2">
+        <v>44972</v>
+      </c>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J439" s="3">
         <v>520</v>
@@ -33293,7 +33339,7 @@
         <v>520</v>
       </c>
       <c r="N439" s="4">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="O439" s="4">
         <v>0</v>
@@ -33320,7 +33366,7 @@
         <v>4</v>
       </c>
       <c r="W439" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440" spans="1:23" x14ac:dyDescent="0.2">
@@ -33530,7 +33576,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J443" s="3">
         <v>520</v>
@@ -33593,7 +33639,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J444" s="3">
         <v>520</v>
@@ -33706,7 +33752,7 @@
         <v>166</v>
       </c>
       <c r="W445" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446" spans="1:23" x14ac:dyDescent="0.2">
@@ -33777,7 +33823,7 @@
         <v>166</v>
       </c>
       <c r="W446" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="447" spans="1:23" x14ac:dyDescent="0.2">
@@ -33806,7 +33852,7 @@
         <v>44971</v>
       </c>
       <c r="I447" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J447" s="3">
         <v>1040</v>
@@ -34118,7 +34164,7 @@
         <v>4</v>
       </c>
       <c r="W451" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.2">
@@ -34541,7 +34587,7 @@
         <v>44966</v>
       </c>
       <c r="I458" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J458" s="3">
         <v>1040</v>
@@ -34612,7 +34658,7 @@
         <v>44967</v>
       </c>
       <c r="I459" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J459" s="3">
         <v>24</v>
@@ -34654,7 +34700,7 @@
         <v>4</v>
       </c>
       <c r="W459" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.2">
@@ -35222,7 +35268,7 @@
         <v>4</v>
       </c>
       <c r="W467" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.2">
@@ -35293,7 +35339,7 @@
         <v>4</v>
       </c>
       <c r="W468" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.2">
@@ -35322,7 +35368,7 @@
         <v>44966</v>
       </c>
       <c r="I469" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J469" s="3">
         <v>520</v>
@@ -35364,7 +35410,7 @@
         <v>4</v>
       </c>
       <c r="W469" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.2">
@@ -35393,7 +35439,7 @@
         <v>44967</v>
       </c>
       <c r="I470" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J470" s="3">
         <v>1040</v>
@@ -35506,7 +35552,7 @@
         <v>4</v>
       </c>
       <c r="W471" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.2">
@@ -35525,11 +35571,13 @@
       <c r="E472" s="2">
         <v>44964</v>
       </c>
-      <c r="F472" s="2"/>
+      <c r="F472" s="2">
+        <v>44972</v>
+      </c>
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J472" s="3">
         <v>106</v>
@@ -35544,7 +35592,7 @@
         <v>106</v>
       </c>
       <c r="N472" s="4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O472" s="4">
         <v>0</v>
@@ -35571,7 +35619,7 @@
         <v>4</v>
       </c>
       <c r="W472" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.2">
@@ -35803,11 +35851,13 @@
       <c r="E476" s="2">
         <v>44966</v>
       </c>
-      <c r="F476" s="2"/>
+      <c r="F476" s="2">
+        <v>44972</v>
+      </c>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J476" s="3">
         <v>520</v>
@@ -35822,7 +35872,7 @@
         <v>520</v>
       </c>
       <c r="N476" s="4">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="O476" s="4">
         <v>0</v>
@@ -35849,7 +35899,7 @@
         <v>4</v>
       </c>
       <c r="W476" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.2">
@@ -35868,7 +35918,9 @@
       <c r="E477" s="2">
         <v>44966</v>
       </c>
-      <c r="F477" s="2"/>
+      <c r="F477" s="2">
+        <v>44972</v>
+      </c>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" t="s">
@@ -35887,7 +35939,7 @@
         <v>178</v>
       </c>
       <c r="N477" s="4">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="O477" s="4">
         <v>0</v>
@@ -35914,7 +35966,7 @@
         <v>4</v>
       </c>
       <c r="W477" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.2">
@@ -36388,7 +36440,9 @@
       <c r="E485" s="2">
         <v>44966</v>
       </c>
-      <c r="F485" s="2"/>
+      <c r="F485" s="2">
+        <v>44972</v>
+      </c>
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" t="s">
@@ -36407,7 +36461,7 @@
         <v>344</v>
       </c>
       <c r="N485" s="4">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="O485" s="4">
         <v>0</v>
@@ -36434,7 +36488,7 @@
         <v>4</v>
       </c>
       <c r="W485" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.2">
@@ -38330,7 +38384,9 @@
       <c r="E513" s="2">
         <v>44970</v>
       </c>
-      <c r="F513" s="2"/>
+      <c r="F513" s="2">
+        <v>44972</v>
+      </c>
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
       <c r="I513" t="s">
@@ -38349,7 +38405,7 @@
         <v>1500</v>
       </c>
       <c r="N513" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O513" s="4">
         <v>0</v>
@@ -38376,7 +38432,7 @@
         <v>166</v>
       </c>
       <c r="W513" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.2">
@@ -38395,7 +38451,9 @@
       <c r="E514" s="2">
         <v>44970</v>
       </c>
-      <c r="F514" s="2"/>
+      <c r="F514" s="2">
+        <v>44972</v>
+      </c>
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
       <c r="I514" t="s">
@@ -38414,7 +38472,7 @@
         <v>1500</v>
       </c>
       <c r="N514" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O514" s="4">
         <v>0</v>
@@ -38441,7 +38499,7 @@
         <v>166</v>
       </c>
       <c r="W514" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.2">
@@ -38460,7 +38518,9 @@
       <c r="E515" s="2">
         <v>44970</v>
       </c>
-      <c r="F515" s="2"/>
+      <c r="F515" s="2">
+        <v>44972</v>
+      </c>
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
       <c r="I515" t="s">
@@ -38479,7 +38539,7 @@
         <v>1500</v>
       </c>
       <c r="N515" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O515" s="4">
         <v>0</v>
@@ -38506,7 +38566,7 @@
         <v>166</v>
       </c>
       <c r="W515" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.2">
@@ -38785,7 +38845,9 @@
       <c r="E520" s="2">
         <v>44970</v>
       </c>
-      <c r="F520" s="2"/>
+      <c r="F520" s="2">
+        <v>44972</v>
+      </c>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" t="s">
@@ -38804,7 +38866,7 @@
         <v>1500</v>
       </c>
       <c r="N520" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O520" s="4">
         <v>0</v>
@@ -38831,7 +38893,7 @@
         <v>166</v>
       </c>
       <c r="W520" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.2">
@@ -39825,7 +39887,7 @@
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
       <c r="I536" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J536" s="3">
         <v>210</v>
@@ -40142,7 +40204,7 @@
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
       <c r="I541" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J541" s="3">
         <v>520</v>
@@ -40402,7 +40464,7 @@
         <v>44967</v>
       </c>
       <c r="I545" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J545" s="3">
         <v>98</v>
@@ -40444,7 +40506,7 @@
         <v>166</v>
       </c>
       <c r="W545" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.2">
@@ -40463,7 +40525,9 @@
       <c r="E546" s="2">
         <v>44966</v>
       </c>
-      <c r="F546" s="2"/>
+      <c r="F546" s="2">
+        <v>44972</v>
+      </c>
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
       <c r="I546" t="s">
@@ -40482,7 +40546,7 @@
         <v>344</v>
       </c>
       <c r="N546" s="4">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="O546" s="4">
         <v>0</v>
@@ -40509,7 +40573,7 @@
         <v>4</v>
       </c>
       <c r="W546" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.2">
@@ -40645,7 +40709,7 @@
         <v>4</v>
       </c>
       <c r="W548" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.2">
@@ -40745,7 +40809,7 @@
         <v>44966</v>
       </c>
       <c r="I550" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J550" s="3">
         <v>106</v>
@@ -40808,7 +40872,7 @@
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
       <c r="I551" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J551" s="3">
         <v>210</v>
@@ -40871,7 +40935,7 @@
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
       <c r="I552" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J552" s="3">
         <v>106</v>
@@ -40936,7 +41000,7 @@
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
       <c r="I553" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J553" s="3">
         <v>106</v>
@@ -41010,7 +41074,7 @@
         <v>370450</v>
       </c>
       <c r="N554" s="8">
-        <v>289844</v>
+        <v>303480</v>
       </c>
       <c r="O554" s="8">
         <v>225620</v>
